--- a/trick/trick.xlsx
+++ b/trick/trick.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F105625C-EDF5-4482-849A-2E320AB8DE00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +93,995 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3346-4610-AC60-B022E3E4751F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB0C3BD-8385-468A-8DAC-12E8454C5CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5727700" y="400050"/>
+          <a:ext cx="1968500" cy="1955800"/>
+          <a:chOff x="7270750" y="361950"/>
+          <a:chExt cx="1968500" cy="1955800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EF568B-D9C1-44BA-86A4-7411003FF302}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7270750" y="361950"/>
+            <a:ext cx="1968500" cy="1955800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="Chart 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05EDF6C-093D-4C8B-B96F-A351319A4B82}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7413625" y="762000"/>
+          <a:ext cx="1711325" cy="1492250"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C43888EF-402E-4C2D-940F-9EEEA73709EC}" name="sales" displayName="sales" ref="D2:E7" totalsRowShown="0">
+  <autoFilter ref="D2:E7" xr:uid="{700F7FB6-BB02-40EF-8863-E2222FAA8912}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{546C5455-54CE-4591-A7BB-12B8E1396172}" name="Branch"/>
+    <tableColumn id="2" xr3:uid="{8AE37695-D698-449B-B1DD-AF993CED6CD3}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1346,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10394</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>32435</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>54435</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>35637</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>99643</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>